--- a/אופטיקה/אקסל אופטיקה חלק א.xlsx
+++ b/אופטיקה/אקסל אופטיקה חלק א.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\אופטיקה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7699663-0BB1-4C2D-A1C4-DD78507BB3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED0C9F-E207-4570-A508-22AC9320C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E9254720-F3AF-4FBF-B2F7-963787EFA725}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{E9254720-F3AF-4FBF-B2F7-963787EFA725}"/>
   </bookViews>
   <sheets>
     <sheet name="התאמה של סנל" sheetId="1" r:id="rId1"/>
     <sheet name="התאמה של סנל שגיאות" sheetId="5" r:id="rId2"/>
     <sheet name="התאמה של סנל אדינגטון" sheetId="6" r:id="rId3"/>
     <sheet name="אלפא קבועה" sheetId="2" r:id="rId4"/>
-    <sheet name="מינימום" sheetId="3" r:id="rId5"/>
-    <sheet name="מש&quot;צ" sheetId="4" r:id="rId6"/>
+    <sheet name="אלפא קבועה שגיאות" sheetId="8" r:id="rId5"/>
+    <sheet name="אלפא קבועה אדינגטון" sheetId="7" r:id="rId6"/>
+    <sheet name="מינימום" sheetId="3" r:id="rId7"/>
+    <sheet name="מינימום שגיאות" sheetId="9" r:id="rId8"/>
+    <sheet name="מינימום אדינגטון" sheetId="10" r:id="rId9"/>
+    <sheet name="מש&quot;צ" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>α</t>
   </si>
@@ -187,6 +191,12 @@
   </si>
   <si>
     <t>dsin(β)/sin(β)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>dN</t>
   </si>
 </sst>
 </file>
@@ -548,7 +558,7 @@
   <dimension ref="A5:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,12 +975,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B66110-0B0E-4673-B480-540F635496A5}">
+  <dimension ref="A3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f>SIN(49*PI()/180)/SIN(PI()/3)</f>
+        <v>0.87146355860321378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198ED294-D595-40AB-BCAE-08F48A7CFC28}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,12 +1110,12 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="K2">
-        <f>SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*(PI()/180)</f>
-        <v>5.6330259388522397E-3</v>
+        <f>(0.5/SQRT(12))*(PI()/180)</f>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L2">
         <f>100*K2/J2</f>
-        <v>0.1793047845466397</v>
+        <v>8.0187537387448035E-2</v>
       </c>
       <c r="M2">
         <f>(C2-J2+PI())/2</f>
@@ -1084,7 +1123,7 @@
       </c>
       <c r="N2">
         <f>SQRT((0.5*D2)^2+(0.5*K2)^2)</f>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O2" t="e">
         <f>100*N2/M2</f>
@@ -1096,7 +1135,7 @@
       </c>
       <c r="Q2">
         <f>COS(M2)*N2</f>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="R2" t="e">
         <f>100*Q2/P2</f>
@@ -1143,12 +1182,12 @@
         <v>3.115412714809878</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K12" si="6">SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*(PI()/180)</f>
-        <v>5.6330259388522397E-3</v>
+        <f t="shared" ref="K3:K12" si="6">(0.5/SQRT(12))*(PI()/180)</f>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L12" si="7">100*K3/J3</f>
-        <v>0.18081154744198963</v>
+        <v>8.0861382239443405E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M12" si="8">(C3-J3+PI())/2</f>
@@ -1156,11 +1195,11 @@
       </c>
       <c r="N3">
         <f>SQRT((0.5*D3)^2+(0.5*K3)^2)</f>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O12" si="9">100*N3/M3</f>
-        <v>5.4392829322042102</v>
+        <v>3.1403714651066377</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="10">SIN(M3)</f>
@@ -1168,11 +1207,11 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q12" si="11">COS(M3)*N3</f>
-        <v>3.0803731379990791E-3</v>
+        <v>1.7784542604282604E-3</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R12" si="12">100*Q3/P3</f>
-        <v>5.4334480105701166</v>
+        <v>3.1370026715304933</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1216,11 +1255,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>0.18286040350365523</v>
+        <v>8.1777658525442762E-2</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
@@ -1228,11 +1267,11 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N3:N12" si="15">SQRT((0.5*D4)^2+(0.5*K4)^2)</f>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>2.6189140043946209</v>
+        <v>1.512030705421715</v>
       </c>
       <c r="P4">
         <f t="shared" si="10"/>
@@ -1240,11 +1279,11 @@
       </c>
       <c r="Q4">
         <f>COS(M4)*N4</f>
-        <v>3.0639492387696519E-3</v>
+        <v>1.7689719177870072E-3</v>
       </c>
       <c r="R4">
         <f t="shared" si="12"/>
-        <v>2.6067866951612015</v>
+        <v>1.5050290001712543</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1288,11 +1327,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>0.18442777839082944</v>
+        <v>8.2478609884232279E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
@@ -1300,11 +1339,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>1.7677669529663667</v>
+        <v>1.0206207261596563</v>
       </c>
       <c r="P5">
         <f t="shared" si="10"/>
@@ -1312,11 +1351,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="11"/>
-        <v>3.0384621966833458E-3</v>
+        <v>1.7542569671776312E-3</v>
       </c>
       <c r="R5">
         <f t="shared" si="12"/>
-        <v>1.7497806412407795</v>
+        <v>1.0102363242431598</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1360,11 +1399,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>0.18602225486106713</v>
+        <v>8.3191681439427359E-2</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
@@ -1372,11 +1411,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>1.3341637380878255</v>
+        <v>0.77027979332804342</v>
       </c>
       <c r="P6">
         <f t="shared" si="10"/>
@@ -1384,11 +1423,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>3.0032014581744234E-3</v>
+        <v>1.7338991703076798E-3</v>
       </c>
       <c r="R6">
         <f t="shared" si="12"/>
-        <v>1.3102950854874529</v>
+        <v>0.7564992203240245</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1432,11 +1471,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>0.18710064474431967</v>
+        <v>8.3673952056467507E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
@@ -1444,11 +1483,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>1.0878565864408429</v>
+        <v>0.628074293021328</v>
       </c>
       <c r="P7">
         <f t="shared" si="10"/>
@@ -1456,11 +1495,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="11"/>
-        <v>2.9620757762726857E-3</v>
+        <v>1.7101552467911046E-3</v>
       </c>
       <c r="R7">
         <f t="shared" si="12"/>
-        <v>1.0585306125349196</v>
+        <v>0.61114293409249532</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1504,11 +1543,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>0.18819161060288714</v>
+        <v>8.4161846820645161E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
@@ -1516,11 +1555,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>0.91832049504746516</v>
+        <v>0.53019258501800437</v>
       </c>
       <c r="P8">
         <f t="shared" si="10"/>
@@ -1528,11 +1567,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="11"/>
-        <v>2.9128312505595473E-3</v>
+        <v>1.6817239066145087E-3</v>
       </c>
       <c r="R8">
         <f t="shared" si="12"/>
-        <v>0.88350436762857265</v>
+        <v>0.51009148448056651</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1576,11 +1615,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>0.18929537371492758</v>
+        <v>8.4655464690560983E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
@@ -1588,11 +1627,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>0.79450200133319904</v>
+        <v>0.45870594434141887</v>
       </c>
       <c r="P9">
         <f t="shared" si="10"/>
@@ -1600,11 +1639,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>2.855602856857042E-3</v>
+        <v>1.6486830781050775E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="12"/>
-        <v>0.75415641996102789</v>
+        <v>0.4354124120755839</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1648,11 +1687,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>0.19041216058050237</v>
+        <v>8.5154906960121818E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
@@ -1660,11 +1699,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>0.70010572394707671</v>
+        <v>0.40420622818204255</v>
       </c>
       <c r="P10">
         <f t="shared" si="10"/>
@@ -1672,11 +1711,11 @@
       </c>
       <c r="Q10">
         <f t="shared" si="11"/>
-        <v>2.7905474542144135E-3</v>
+        <v>1.6111233238771164E-3</v>
       </c>
       <c r="R10">
         <f t="shared" si="12"/>
-        <v>0.65418470534410411</v>
+        <v>0.37769371573015448</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1720,11 +1759,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>0.19097551016801861</v>
+        <v>8.5406844554678382E-2</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
@@ -1732,11 +1771,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.63134534034513179</v>
+        <v>0.36450740219987771</v>
       </c>
       <c r="P11">
         <f t="shared" si="10"/>
@@ -1744,11 +1783,11 @@
       </c>
       <c r="Q11">
         <f t="shared" si="11"/>
-        <v>2.7241894413895327E-3</v>
+        <v>1.5728115073097829E-3</v>
       </c>
       <c r="R11">
         <f t="shared" si="12"/>
-        <v>0.58026718918264664</v>
+        <v>0.33501741787650852</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1792,11 +1831,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>5.6330259388522397E-3</v>
+        <v>2.5191657836586361E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>0.19041216058050237</v>
+        <v>8.5154906960121818E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="8"/>
@@ -1804,11 +1843,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="15"/>
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>0.58438576957565924</v>
+        <v>0.33739528137509345</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
@@ -1816,11 +1855,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="11"/>
-        <v>2.6652222412833493E-3</v>
+        <v>1.5387667784551192E-3</v>
       </c>
       <c r="R12">
         <f t="shared" si="12"/>
-        <v>0.52905119413154833</v>
+        <v>0.30544784934694241</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1873,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.0853353737210882E-3</v>
+        <v>1.7813192085581447E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,7 +1917,7 @@
         <v>5.6692787563377534E-2</v>
       </c>
       <c r="D3">
-        <v>3.0803731379990791E-3</v>
+        <v>1.7784542604282604E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,7 +1931,7 @@
         <v>0.11753739745783764</v>
       </c>
       <c r="D4">
-        <v>3.0639492387696519E-3</v>
+        <v>1.7689719177870072E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1906,7 +1945,7 @@
         <v>0.17364817766693058</v>
       </c>
       <c r="D5">
-        <v>3.0384621966833458E-3</v>
+        <v>1.7542569671776312E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,7 +1959,7 @@
         <v>0.2292003909224142</v>
       </c>
       <c r="D6">
-        <v>3.0032014581744234E-3</v>
+        <v>1.7338991703076798E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,7 +1973,7 @@
         <v>0.27982901403099197</v>
       </c>
       <c r="D7">
-        <v>2.9620757762726857E-3</v>
+        <v>1.7101552467911046E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,7 +1987,7 @@
         <v>0.32969064526278702</v>
       </c>
       <c r="D8">
-        <v>2.9128312505595473E-3</v>
+        <v>1.6817239066145087E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1962,7 +2001,7 @@
         <v>0.37864861735243321</v>
       </c>
       <c r="D9">
-        <v>2.855602856857042E-3</v>
+        <v>1.6486830781050775E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,7 +2015,7 @@
         <v>0.42656873990145844</v>
       </c>
       <c r="D10">
-        <v>2.7905474542144135E-3</v>
+        <v>1.6111233238771164E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1990,7 +2029,7 @@
         <v>0.46947156278589081</v>
       </c>
       <c r="D11">
-        <v>2.7241894413895327E-3</v>
+        <v>1.5728115073097829E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2004,7 +2043,7 @@
         <v>0.50377397704552629</v>
       </c>
       <c r="D12">
-        <v>2.6652222412833493E-3</v>
+        <v>1.5387667784551192E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2056,7 @@
   <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,11 +2155,257 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932E06C-783B-47ED-8E0A-3EAD0435C8FA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <f>B2*PI()/180</f>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="D2">
+        <f>SQRT((2/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+      <c r="E2">
+        <f>100*D2/C2</f>
+        <v>0.79349204761587233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>176.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">B3*PI()/180</f>
+        <v>3.0805061297699914</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">SQRT((2/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="2">100*D3/C3</f>
+        <v>0.33717792391609308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>276.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.0386786614466445E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.21523292430810281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>378.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6.6060712187985375</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.0386786614466445E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.15723092092784788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>478.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.3514004707928677</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.0386786614466445E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.12437179429715867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813ECE17-93F3-48F5-BC28-B4C1A46D3E27}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C2">
+        <f>'אלפא קבועה שגיאות'!C2</f>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="D2">
+        <f>'אלפא קבועה שגיאות'!D2</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">10^-3</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C3">
+        <f>'אלפא קבועה שגיאות'!C3</f>
+        <v>3.0805061297699914</v>
+      </c>
+      <c r="D3">
+        <f>'אלפא קבועה שגיאות'!D3</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C4">
+        <f>'אלפא קבועה שגיאות'!C4</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D4">
+        <f>'אלפא קבועה שגיאות'!D4</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C5">
+        <f>'אלפא קבועה שגיאות'!C5</f>
+        <v>6.6060712187985375</v>
+      </c>
+      <c r="D5">
+        <f>'אלפא קבועה שגיאות'!D5</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C6">
+        <f>'אלפא קבועה שגיאות'!C6</f>
+        <v>8.3514004707928677</v>
+      </c>
+      <c r="D6">
+        <f>'אלפא קבועה שגיאות'!D6</f>
+        <v>1.0386786614466445E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C098B6-1745-479D-A42B-D495E6382D9A}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,6 +2471,9 @@
       <c r="C7">
         <v>276.5</v>
       </c>
+      <c r="G7">
+        <v>1.2658043889999999</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -2216,24 +2504,519 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B66110-0B0E-4673-B480-540F635496A5}">
-  <dimension ref="A3:A4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECDF55C-27AF-4A84-9299-E8D14A605E5B}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <f>A2*(PI()/180)</f>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="C2">
+        <f>(1/SQRT(12))*(PI()/180)</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D2">
+        <f>100*C2/B2</f>
+        <v>0.41836976028233758</v>
+      </c>
+      <c r="E2">
+        <v>277</v>
+      </c>
+      <c r="F2">
+        <f>E2*(PI()/180)</f>
+        <v>4.8345620280242931</v>
+      </c>
+      <c r="G2">
+        <f>(1/SQRT(12))*(PI()/180)</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H2">
+        <f>100*G2/F2</f>
+        <v>0.10421485003422848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">A3*(PI()/180)</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="1">(1/SQRT(12))*(PI()/180)</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="2">100*C3/B3</f>
+        <v>0.41239304942116134</v>
+      </c>
+      <c r="E3">
+        <v>276.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="3">E3*(PI()/180)</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="4">(1/SQRT(12))*(PI()/180)</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="5">100*G3/F3</f>
+        <v>0.10440330365092691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0.40658469661241259</v>
+      </c>
+      <c r="E4">
+        <v>276.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>0.10440330365092691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.40093768693724019</v>
+      </c>
+      <c r="E5">
+        <v>276.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>0.10440330365092691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.3954453898559081</v>
+      </c>
+      <c r="E6">
+        <v>276</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>4.8171087355043491</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0.10459244007058439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.39010153323623364</v>
+      </c>
+      <c r="E7">
+        <v>276.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.10440330365092691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.38490017945975052</v>
+      </c>
+      <c r="E8">
+        <v>276.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.10440330365092691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.3264502315156905</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.37983570341422751</v>
+      </c>
+      <c r="E9">
+        <v>277</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>4.8345620280242931</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.10421485003422848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.37490277220105572</v>
+      </c>
+      <c r="E10">
+        <v>277.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>4.8432886742842642</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.10402707552966232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AEC73-D6C1-44BA-A0AB-E9392580388E}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'מינימום שגיאות'!B1</f>
+        <v>α [rad]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'מינימום שגיאות'!C1</f>
+        <v>dα [rad]</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'מינימום שגיאות'!F1</f>
+        <v>δ [rad]</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'מינימום שגיאות'!G1</f>
+        <v>dδ</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'מינימום שגיאות'!B2</f>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="B2">
+        <f>'מינימום שגיאות'!C2</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C2">
+        <f>'מינימום שגיאות'!F2</f>
+        <v>4.8345620280242931</v>
+      </c>
+      <c r="D2">
+        <f>'מינימום שגיאות'!G2</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'מינימום שגיאות'!B3</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="B3">
+        <f>'מינימום שגיאות'!C3</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C3">
+        <f>'מינימום שגיאות'!F3</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D3">
+        <f>'מינימום שגיאות'!G3</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'מינימום שגיאות'!B4</f>
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="B4">
+        <f>'מינימום שגיאות'!C4</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C4">
+        <f>'מינימום שגיאות'!F4</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D4">
+        <f>'מינימום שגיאות'!G4</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'מינימום שגיאות'!B5</f>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="B5">
+        <f>'מינימום שגיאות'!C5</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C5">
+        <f>'מינימום שגיאות'!F5</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D5">
+        <f>'מינימום שגיאות'!G5</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'מינימום שגיאות'!B6</f>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="B6">
+        <f>'מינימום שגיאות'!C6</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C6">
+        <f>'מינימום שגיאות'!F6</f>
+        <v>4.8171087355043491</v>
+      </c>
+      <c r="D6">
+        <f>'מינימום שגיאות'!G6</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'מינימום שגיאות'!B7</f>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="B7">
+        <f>'מינימום שגיאות'!C7</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C7">
+        <f>'מינימום שגיאות'!F7</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D7">
+        <f>'מינימום שגיאות'!G7</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'מינימום שגיאות'!B8</f>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="B8">
+        <f>'מינימום שגיאות'!C8</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C8">
+        <f>'מינימום שגיאות'!F8</f>
+        <v>4.8258353817643211</v>
+      </c>
+      <c r="D8">
+        <f>'מינימום שגיאות'!G8</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'מינימום שגיאות'!B9</f>
+        <v>1.3264502315156905</v>
+      </c>
+      <c r="B9">
+        <f>'מינימום שגיאות'!C9</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C9">
+        <f>'מינימום שגיאות'!F9</f>
+        <v>4.8345620280242931</v>
+      </c>
+      <c r="D9">
+        <f>'מינימום שגיאות'!G9</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'מינימום שגיאות'!B10</f>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="B10">
+        <f>'מינימום שגיאות'!C10</f>
+        <v>5.0383315673172722E-3</v>
+      </c>
+      <c r="C10">
+        <f>'מינימום שגיאות'!F10</f>
+        <v>4.8432886742842642</v>
+      </c>
+      <c r="D10">
+        <f>'מינימום שגיאות'!G10</f>
+        <v>5.0383315673172722E-3</v>
       </c>
     </row>
   </sheetData>

--- a/אופטיקה/אקסל אופטיקה חלק א.xlsx
+++ b/אופטיקה/אקסל אופטיקה חלק א.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\אופטיקה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\אוניברסיטת תל אביב\laba\אופטיקה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED0C9F-E207-4570-A508-22AC9320C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{E9254720-F3AF-4FBF-B2F7-963787EFA725}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="התאמה של סנל" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="מינימום אדינגטון" sheetId="10" r:id="rId9"/>
     <sheet name="מש&quot;צ" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>α</t>
   </si>
@@ -142,9 +141,6 @@
     <t>N=5</t>
   </si>
   <si>
-    <t>ALTHA</t>
-  </si>
-  <si>
     <t>בכולם +-0.5</t>
   </si>
   <si>
@@ -197,17 +193,26 @@
   </si>
   <si>
     <t>dN</t>
+  </si>
+  <si>
+    <t>a_1</t>
+  </si>
+  <si>
+    <t>da_1</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,16 +559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE3D5F8-14B0-43FF-A12E-68ECBC5962F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -630,7 +635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -671,7 +676,7 @@
         <v>1.5373338742644422</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -703,7 +708,7 @@
         <v>1.477386614155894</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -735,7 +740,7 @@
         <v>1.4904794774118153</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -767,7 +772,7 @@
         <v>1.4922319370800929</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>25</v>
       </c>
@@ -799,7 +804,7 @@
         <v>1.5102732045287237</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -831,7 +836,7 @@
         <v>1.5165732094141289</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>35</v>
       </c>
@@ -863,7 +868,7 @@
         <v>1.5147987079989274</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -895,7 +900,7 @@
         <v>1.5068793128981497</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>45</v>
       </c>
@@ -927,7 +932,7 @@
         <v>1.5061759587535093</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50</v>
       </c>
@@ -959,12 +964,12 @@
         <v>1.5206113813412601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -976,16 +981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B66110-0B0E-4673-B480-540F635496A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -994,7 +999,7 @@
         <v>0.87146355860321378</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1005,78 +1010,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198ED294-D595-40AB-BCAE-08F48A7CFC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
       <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>0.5/SQRT(12)</f>
-        <v>0.14433756729740646</v>
+        <f>SQRT((0.5/SQRT(12))^2+(1/SQRT(12))^2)</f>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C2">
         <f>A2*PI()/180</f>
@@ -1084,7 +1089,7 @@
       </c>
       <c r="D2">
         <f>B2*PI()/180</f>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E2" t="e">
         <f>100*D2/C2</f>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="G2">
         <f>COS(C2)*D2</f>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H2" t="e">
         <f>100*G2/F2</f>
@@ -1110,12 +1115,12 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="K2">
-        <f>(0.5/SQRT(12))*(PI()/180)</f>
-        <v>2.5191657836586361E-3</v>
+        <f>SQRT((0.5/SQRT(12))^2+(1.5/SQRT(12))^2)*(PI()/180)</f>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L2">
         <f>100*K2/J2</f>
-        <v>8.0187537387448035E-2</v>
+        <v>0.25357525810424358</v>
       </c>
       <c r="M2">
         <f>(C2-J2+PI())/2</f>
@@ -1123,7 +1128,7 @@
       </c>
       <c r="N2">
         <f>SQRT((0.5*D2)^2+(0.5*K2)^2)</f>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O2" t="e">
         <f>100*N2/M2</f>
@@ -1135,20 +1140,20 @@
       </c>
       <c r="Q2">
         <f>COS(M2)*N2</f>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="R2" t="e">
         <f>100*Q2/P2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">0.5/SQRT(12)</f>
-        <v>0.14433756729740646</v>
+        <f t="shared" ref="B3:B12" si="0">SQRT((0.5/SQRT(12))^2+(1/SQRT(12))^2)</f>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C3">
         <f>A3*PI()/180</f>
@@ -1156,11 +1161,11 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D12" si="1">B3*PI()/180</f>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E12" si="2">100*D3/C3</f>
-        <v>2.8867513459481291</v>
+        <v>6.4549722436790296</v>
       </c>
       <c r="F3">
         <f>SIN(C3)</f>
@@ -1168,11 +1173,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G12" si="3">COS(C3)*D3</f>
-        <v>2.5095795972948707E-3</v>
+        <v>5.6115905744978786E-3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H12" si="4">100*G3/F3</f>
-        <v>2.8794196666544982</v>
+        <v>6.4385781103892432</v>
       </c>
       <c r="I3">
         <v>178.5</v>
@@ -1182,12 +1187,12 @@
         <v>3.115412714809878</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K12" si="6">(0.5/SQRT(12))*(PI()/180)</f>
-        <v>2.5191657836586361E-3</v>
+        <f t="shared" ref="K3:K12" si="6">SQRT((0.5/SQRT(12))^2+(1.5/SQRT(12))^2)*(PI()/180)</f>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L12" si="7">100*K3/J3</f>
-        <v>8.0861382239443405E-2</v>
+        <v>0.25570614262612801</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M12" si="8">(C3-J3+PI())/2</f>
@@ -1195,11 +1200,11 @@
       </c>
       <c r="N3">
         <f>SQRT((0.5*D3)^2+(0.5*K3)^2)</f>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O12" si="9">100*N3/M3</f>
-        <v>3.1403714651066377</v>
+        <v>8.6002614519222664</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P12" si="10">SIN(M3)</f>
@@ -1207,20 +1212,20 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q12" si="11">COS(M3)*N3</f>
-        <v>1.7784542604282604E-3</v>
+        <v>4.8704975796386284E-3</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R12" si="12">100*Q3/P3</f>
-        <v>3.1370026715304933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8.5910356307561031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C12" si="13">A4*PI()/180</f>
@@ -1228,11 +1233,11 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>1.4433756729740645</v>
+        <v>3.2274861218395148</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F12" si="14">SIN(C4)</f>
@@ -1240,11 +1245,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>2.4808939948700996E-3</v>
+        <v>5.5474476175005573E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>1.4286899109466222</v>
+        <v>3.1946477596447687</v>
       </c>
       <c r="I4">
         <v>176.5</v>
@@ -1255,23 +1260,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="7"/>
-        <v>8.1777658525442762E-2</v>
+        <v>0.25860366265588586</v>
       </c>
       <c r="M4">
         <f t="shared" si="8"/>
         <v>0.11780972450961724</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N12" si="15">SQRT((0.5*D4)^2+(0.5*K4)^2)</f>
-        <v>1.7813192085581447E-3</v>
+        <f t="shared" ref="N4:N12" si="15">SQRT((0.5*D4)^2+(0.5*K4)^2)</f>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>1.512030705421715</v>
+        <v>4.1408666249996111</v>
       </c>
       <c r="P4">
         <f t="shared" si="10"/>
@@ -1279,20 +1284,20 @@
       </c>
       <c r="Q4">
         <f>COS(M4)*N4</f>
-        <v>1.7689719177870072E-3</v>
+        <v>4.8445291148255911E-3</v>
       </c>
       <c r="R4">
         <f t="shared" si="12"/>
-        <v>1.5050290001712543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4.121691665466213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C5">
         <f t="shared" si="13"/>
@@ -1300,11 +1305,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>0.96225044864937648</v>
+        <v>2.1516574145596765</v>
       </c>
       <c r="F5">
         <f t="shared" si="14"/>
@@ -1312,11 +1317,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>2.4333272911396162E-3</v>
+        <v>5.4410852344936042E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
-        <v>0.94016546973030968</v>
+        <v>2.1022739004149935</v>
       </c>
       <c r="I5">
         <v>175</v>
@@ -1327,11 +1332,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>8.2478609884232279E-2</v>
+        <v>0.26082026547865061</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
@@ -1339,11 +1344,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>1.0206207261596563</v>
+        <v>2.7950849718747337</v>
       </c>
       <c r="P5">
         <f t="shared" si="10"/>
@@ -1351,20 +1356,20 @@
       </c>
       <c r="Q5">
         <f t="shared" si="11"/>
-        <v>1.7542569671776312E-3</v>
+        <v>4.8042305629189428E-3</v>
       </c>
       <c r="R5">
         <f t="shared" si="12"/>
-        <v>1.0102363242431598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.7666461159954094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C6">
         <f t="shared" si="13"/>
@@ -1372,11 +1377,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>0.72168783648703227</v>
+        <v>1.6137430609197574</v>
       </c>
       <c r="F6">
         <f t="shared" si="14"/>
@@ -1384,11 +1389,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>2.3672414974403705E-3</v>
+        <v>5.2933129074350634E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>0.69213511064648114</v>
+        <v>1.5476611570198704</v>
       </c>
       <c r="I6">
         <v>173.5</v>
@@ -1399,11 +1404,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>8.3191681439427359E-2</v>
+        <v>0.26307519572774551</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
@@ -1411,11 +1416,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>0.77027979332804342</v>
+        <v>2.1094980919809334</v>
       </c>
       <c r="P6">
         <f t="shared" si="10"/>
@@ -1423,20 +1428,20 @@
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>1.7338991703076798E-3</v>
+        <v>4.74847844008504E-3</v>
       </c>
       <c r="R6">
         <f t="shared" si="12"/>
-        <v>0.7564992203240245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.0717584385326946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C7">
         <f t="shared" si="13"/>
@@ -1444,11 +1449,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0.57735026918962584</v>
+        <v>1.2909944487358058</v>
       </c>
       <c r="F7">
         <f t="shared" si="14"/>
@@ -1456,11 +1461,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>2.2831395665661065E-3</v>
+        <v>5.1052552729612208E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>0.54023684569668307</v>
+        <v>1.2080063109278483</v>
       </c>
       <c r="I7">
         <v>172.5</v>
@@ -1471,11 +1476,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>8.3673952056467507E-2</v>
+        <v>0.2646002693261672</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
@@ -1483,11 +1488,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>0.628074293021328</v>
+        <v>1.7200522903844546</v>
       </c>
       <c r="P7">
         <f t="shared" si="10"/>
@@ -1495,20 +1500,20 @@
       </c>
       <c r="Q7">
         <f t="shared" si="11"/>
-        <v>1.7101552467911046E-3</v>
+        <v>4.6834530275165123E-3</v>
       </c>
       <c r="R7">
         <f t="shared" si="12"/>
-        <v>0.61114293409249532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.6736838543117636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C8">
         <f t="shared" si="13"/>
@@ -1516,11 +1521,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.48112522432468824</v>
+        <v>1.0758287072798383</v>
       </c>
       <c r="F8">
         <f t="shared" si="14"/>
@@ -1528,11 +1533,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>2.1816615649929124E-3</v>
+        <v>4.8783435632227283E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>0.43633231299858255</v>
+        <v>0.9756687126445458</v>
       </c>
       <c r="I8">
         <v>171.5</v>
@@ -1543,11 +1548,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>8.4161846820645161E-2</v>
+        <v>0.26614312803943935</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
@@ -1555,11 +1560,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>0.53019258501800437</v>
+        <v>1.451992193181683</v>
       </c>
       <c r="P8">
         <f t="shared" si="10"/>
@@ -1567,20 +1572,20 @@
       </c>
       <c r="Q8">
         <f t="shared" si="11"/>
-        <v>1.6817239066145087E-3</v>
+        <v>4.6055905957423891E-3</v>
       </c>
       <c r="R8">
         <f t="shared" si="12"/>
-        <v>0.51009148448056651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.3969430622065131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C9">
         <f t="shared" si="13"/>
@@ -1588,11 +1593,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.41239304942116134</v>
+        <v>0.92213889195414711</v>
       </c>
       <c r="F9">
         <f t="shared" si="14"/>
@@ -1600,11 +1605,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>2.0635798015868519E-3</v>
+        <v>4.6143047133437292E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>0.35977415925850181</v>
+        <v>0.80447947664984543</v>
       </c>
       <c r="I9">
         <v>170.5</v>
@@ -1615,11 +1620,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>8.4655464690560983E-2</v>
+        <v>0.26770408480213403</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
@@ -1627,11 +1632,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>0.45870594434141887</v>
+        <v>1.2562179648875216</v>
       </c>
       <c r="P9">
         <f t="shared" si="10"/>
@@ -1639,20 +1644,20 @@
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>1.6486830781050775E-3</v>
+        <v>4.5151045602760129E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="12"/>
-        <v>0.4354124120755839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.1924259995576605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C10">
         <f t="shared" si="13"/>
@@ -1660,11 +1665,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.36084391824351614</v>
+        <v>0.80687153045987869</v>
       </c>
       <c r="F10">
         <f t="shared" si="14"/>
@@ -1672,11 +1677,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>1.9297929498671637E-3</v>
+        <v>4.3151482184028223E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.30022248730155882</v>
+        <v>0.67131788998035302</v>
       </c>
       <c r="I10">
         <v>169.5</v>
@@ -1687,11 +1692,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>8.5154906960121818E-2</v>
+        <v>0.26928345993371006</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
@@ -1699,11 +1704,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>0.40420622818204255</v>
+        <v>1.1069643452969256</v>
       </c>
       <c r="P10">
         <f t="shared" si="10"/>
@@ -1711,20 +1716,20 @@
       </c>
       <c r="Q10">
         <f t="shared" si="11"/>
-        <v>1.6111233238771164E-3</v>
+        <v>4.4122429370509917E-3</v>
       </c>
       <c r="R10">
         <f t="shared" si="12"/>
-        <v>0.37769371573015448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.0343568396667471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>45</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C11">
         <f t="shared" si="13"/>
@@ -1732,11 +1737,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.32075014954979214</v>
+        <v>0.7172191381865588</v>
       </c>
       <c r="F11">
         <f t="shared" si="14"/>
@@ -1744,11 +1749,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>1.7813192085581449E-3</v>
+        <v>3.9831508399621376E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.25191657836586367</v>
+        <v>0.56330259388522408</v>
       </c>
       <c r="I11">
         <v>169</v>
@@ -1759,11 +1764,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>8.5406844554678382E-2</v>
+        <v>0.27008015656073286</v>
       </c>
       <c r="M11">
         <f t="shared" si="8"/>
@@ -1771,11 +1776,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>0.36450740219987771</v>
+        <v>0.99824463281240627</v>
       </c>
       <c r="P11">
         <f t="shared" si="10"/>
@@ -1783,20 +1788,20 @@
       </c>
       <c r="Q11">
         <f t="shared" si="11"/>
-        <v>1.5728115073097829E-3</v>
+        <v>4.3073217062863482E-3</v>
       </c>
       <c r="R11">
         <f t="shared" si="12"/>
-        <v>0.33501741787650852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.91748298464049116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.14433756729740646</v>
+        <v>0.32274861218395146</v>
       </c>
       <c r="C12">
         <f t="shared" si="13"/>
@@ -1804,11 +1809,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.5191657836586361E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.28867513459481292</v>
+        <v>0.64549722436790291</v>
       </c>
       <c r="F12">
         <f t="shared" si="14"/>
@@ -1816,11 +1821,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>1.6192885524820525E-3</v>
+        <v>3.6208392785371055E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>0.21138310799423854</v>
+        <v>0.47266699877029666</v>
       </c>
       <c r="I12">
         <v>169.5</v>
@@ -1831,11 +1836,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>2.5191657836586361E-3</v>
+        <v>7.9663016799242734E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>8.5154906960121818E-2</v>
+        <v>0.26928345993371006</v>
       </c>
       <c r="M12">
         <f t="shared" si="8"/>
@@ -1843,11 +1848,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="15"/>
-        <v>1.7813192085581447E-3</v>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>0.33739528137509345</v>
+        <v>0.92399503202470656</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
@@ -1855,11 +1860,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="11"/>
-        <v>1.5387667784551192E-3</v>
+        <v>4.2140863764971162E-3</v>
       </c>
       <c r="R12">
         <f t="shared" si="12"/>
-        <v>0.30544784934694241</v>
+        <v>0.83650338614379971</v>
       </c>
     </row>
   </sheetData>
@@ -1869,181 +1874,229 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34820D9-8437-473B-A092-F928A55AFE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>'התאמה של סנל שגיאות'!P1</f>
+        <v>sin(β)</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'התאמה של סנל שגיאות'!Q1</f>
+        <v>dsin(β)</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'התאמה של סנל שגיאות'!F1</f>
+        <v>sin(α)</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'התאמה של סנל שגיאות'!G1</f>
+        <v>dsin(α)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
+        <f>'התאמה של סנל שגיאות'!P2</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5191657836586361E-3</v>
+        <f>'התאמה של סנל שגיאות'!Q2</f>
+        <v>4.8783435632227274E-3</v>
       </c>
       <c r="C2">
+        <f>'התאמה של סנל שגיאות'!F2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.7813192085581447E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G2</f>
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>'התאמה של סנל שגיאות'!P3</f>
+        <v>5.6692787563377534E-2</v>
+      </c>
+      <c r="B3">
+        <f>'התאמה של סנל שגיאות'!Q3</f>
+        <v>4.8704975796386284E-3</v>
+      </c>
+      <c r="C3">
+        <f>'התאמה של סנל שגיאות'!F3</f>
         <v>8.7155742747658166E-2</v>
       </c>
-      <c r="B3">
-        <v>2.5095795972948707E-3</v>
-      </c>
-      <c r="C3">
-        <v>5.6692787563377534E-2</v>
-      </c>
       <c r="D3">
-        <v>1.7784542604282604E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G3</f>
+        <v>5.6115905744978786E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f>'התאמה של סנל שגיאות'!P4</f>
+        <v>0.11753739745783764</v>
+      </c>
+      <c r="B4">
+        <f>'התאמה של סנל שגיאות'!Q4</f>
+        <v>4.8445291148255911E-3</v>
+      </c>
+      <c r="C4">
+        <f>'התאמה של סנל שגיאות'!F4</f>
         <v>0.17364817766693033</v>
       </c>
-      <c r="B4">
-        <v>2.4808939948700996E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.11753739745783764</v>
-      </c>
       <c r="D4">
-        <v>1.7689719177870072E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G4</f>
+        <v>5.5474476175005573E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f>'התאמה של סנל שגיאות'!P5</f>
+        <v>0.17364817766693058</v>
+      </c>
+      <c r="B5">
+        <f>'התאמה של סנל שגיאות'!Q5</f>
+        <v>4.8042305629189428E-3</v>
+      </c>
+      <c r="C5">
+        <f>'התאמה של סנל שגיאות'!F5</f>
         <v>0.25881904510252074</v>
       </c>
-      <c r="B5">
-        <v>2.4333272911396162E-3</v>
-      </c>
-      <c r="C5">
-        <v>0.17364817766693058</v>
-      </c>
       <c r="D5">
-        <v>1.7542569671776312E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G5</f>
+        <v>5.4410852344936042E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f>'התאמה של סנל שגיאות'!P6</f>
+        <v>0.2292003909224142</v>
+      </c>
+      <c r="B6">
+        <f>'התאמה של סנל שגיאות'!Q6</f>
+        <v>4.74847844008504E-3</v>
+      </c>
+      <c r="C6">
+        <f>'התאמה של סנל שגיאות'!F6</f>
         <v>0.34202014332566871</v>
       </c>
-      <c r="B6">
-        <v>2.3672414974403705E-3</v>
-      </c>
-      <c r="C6">
-        <v>0.2292003909224142</v>
-      </c>
       <c r="D6">
-        <v>1.7338991703076798E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G6</f>
+        <v>5.2933129074350634E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f>'התאמה של סנל שגיאות'!P7</f>
+        <v>0.27982901403099197</v>
+      </c>
+      <c r="B7">
+        <f>'התאמה של סנל שגיאות'!Q7</f>
+        <v>4.6834530275165123E-3</v>
+      </c>
+      <c r="C7">
+        <f>'התאמה של סנל שגיאות'!F7</f>
         <v>0.42261826174069944</v>
       </c>
-      <c r="B7">
-        <v>2.2831395665661065E-3</v>
-      </c>
-      <c r="C7">
-        <v>0.27982901403099197</v>
-      </c>
       <c r="D7">
-        <v>1.7101552467911046E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G7</f>
+        <v>5.1052552729612208E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f>'התאמה של סנל שגיאות'!P8</f>
+        <v>0.32969064526278702</v>
+      </c>
+      <c r="B8">
+        <f>'התאמה של סנל שגיאות'!Q8</f>
+        <v>4.6055905957423891E-3</v>
+      </c>
+      <c r="C8">
+        <f>'התאמה של סנל שגיאות'!F8</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="B8">
-        <v>2.1816615649929124E-3</v>
-      </c>
-      <c r="C8">
-        <v>0.32969064526278702</v>
-      </c>
       <c r="D8">
-        <v>1.6817239066145087E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G8</f>
+        <v>4.8783435632227283E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f>'התאמה של סנל שגיאות'!P9</f>
+        <v>0.37864861735243321</v>
+      </c>
+      <c r="B9">
+        <f>'התאמה של סנל שגיאות'!Q9</f>
+        <v>4.5151045602760129E-3</v>
+      </c>
+      <c r="C9">
+        <f>'התאמה של סנל שגיאות'!F9</f>
         <v>0.57357643635104605</v>
       </c>
-      <c r="B9">
-        <v>2.0635798015868519E-3</v>
-      </c>
-      <c r="C9">
-        <v>0.37864861735243321</v>
-      </c>
       <c r="D9">
-        <v>1.6486830781050775E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G9</f>
+        <v>4.6143047133437292E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f>'התאמה של סנל שגיאות'!P10</f>
+        <v>0.42656873990145844</v>
+      </c>
+      <c r="B10">
+        <f>'התאמה של סנל שגיאות'!Q10</f>
+        <v>4.4122429370509917E-3</v>
+      </c>
+      <c r="C10">
+        <f>'התאמה של סנל שגיאות'!F10</f>
         <v>0.64278760968653925</v>
       </c>
-      <c r="B10">
-        <v>1.9297929498671637E-3</v>
-      </c>
-      <c r="C10">
-        <v>0.42656873990145844</v>
-      </c>
       <c r="D10">
-        <v>1.6111233238771164E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G10</f>
+        <v>4.3151482184028223E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f>'התאמה של סנל שגיאות'!P11</f>
+        <v>0.46947156278589081</v>
+      </c>
+      <c r="B11">
+        <f>'התאמה של סנל שגיאות'!Q11</f>
+        <v>4.3073217062863482E-3</v>
+      </c>
+      <c r="C11">
+        <f>'התאמה של סנל שגיאות'!F11</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="B11">
-        <v>1.7813192085581449E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.46947156278589081</v>
-      </c>
       <c r="D11">
-        <v>1.5728115073097829E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <f>'התאמה של סנל שגיאות'!G11</f>
+        <v>3.9831508399621376E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f>'התאמה של סנל שגיאות'!P12</f>
+        <v>0.50377397704552629</v>
+      </c>
+      <c r="B12">
+        <f>'התאמה של סנל שגיאות'!Q12</f>
+        <v>4.2140863764971162E-3</v>
+      </c>
+      <c r="C12">
+        <f>'התאמה של סנל שגיאות'!F12</f>
         <v>0.76604444311897801</v>
       </c>
-      <c r="B12">
-        <v>1.6192885524820525E-3</v>
-      </c>
-      <c r="C12">
-        <v>0.50377397704552629</v>
-      </c>
       <c r="D12">
-        <v>1.5387667784551192E-3</v>
+        <f>'התאמה של סנל שגיאות'!G12</f>
+        <v>3.6208392785371055E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2052,16 +2105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CF6B1-44C9-497A-B32A-D4DE7AAB1137}">
-  <dimension ref="B1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,10 +2125,10 @@
         <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>80</v>
       </c>
@@ -2089,7 +2142,7 @@
         <v>176.5</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>19</v>
       </c>
@@ -2097,10 +2150,10 @@
         <v>276.5</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2161,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +2178,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -2144,9 +2197,27 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f>J1*(PI()/180)</f>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((0.5/SQRT(12))^2+(1/SQRT(12))^2)</f>
+        <v>0.32274861218395146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2155,33 +2226,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932E06C-783B-47ED-8E0A-3EAD0435C8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2201,7 +2272,7 @@
         <v>0.79349204761587233</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2221,7 +2292,7 @@
         <v>0.33717792391609308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2241,7 +2312,7 @@
         <v>0.21523292430810281</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2261,7 +2332,7 @@
         <v>0.15723092092784788</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2287,30 +2358,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813ECE17-93F3-48F5-BC28-B4C1A46D3E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2327,7 +2398,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2344,7 +2415,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2361,7 +2432,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2378,7 +2449,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2401,16 +2472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C098B6-1745-479D-A42B-D495E6382D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>69</v>
       </c>
@@ -2429,7 +2500,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>70</v>
       </c>
@@ -2440,7 +2511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>71</v>
       </c>
@@ -2448,7 +2519,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>72</v>
       </c>
@@ -2456,7 +2527,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>73</v>
       </c>
@@ -2464,7 +2535,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>74</v>
       </c>
@@ -2475,7 +2546,7 @@
         <v>1.2658043889999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>75</v>
       </c>
@@ -2483,7 +2554,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>76</v>
       </c>
@@ -2491,7 +2562,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>77</v>
       </c>
@@ -2505,40 +2576,42 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECDF55C-27AF-4A84-9299-E8D14A605E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>69</v>
       </c>
@@ -2570,7 +2643,7 @@
         <v>0.10421485003422848</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>70</v>
       </c>
@@ -2602,7 +2675,7 @@
         <v>0.10440330365092691</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>71</v>
       </c>
@@ -2634,7 +2707,7 @@
         <v>0.10440330365092691</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>72</v>
       </c>
@@ -2666,7 +2739,7 @@
         <v>0.10440330365092691</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>73</v>
       </c>
@@ -2698,7 +2771,7 @@
         <v>0.10459244007058439</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>74</v>
       </c>
@@ -2730,7 +2803,7 @@
         <v>0.10440330365092691</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>75</v>
       </c>
@@ -2762,7 +2835,7 @@
         <v>0.10440330365092691</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>76</v>
       </c>
@@ -2794,7 +2867,7 @@
         <v>0.10421485003422848</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>77</v>
       </c>
@@ -2832,14 +2905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AEC73-D6C1-44BA-A0AB-E9392580388E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'מינימום שגיאות'!B1</f>
         <v>α [rad]</v>
@@ -2857,7 +2930,7 @@
         <v>dδ</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>'מינימום שגיאות'!B2</f>
         <v>1.2042771838760873</v>
@@ -2875,7 +2948,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>'מינימום שגיאות'!B3</f>
         <v>1.2217304763960306</v>
@@ -2893,7 +2966,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>'מינימום שגיאות'!B4</f>
         <v>1.2391837689159739</v>
@@ -2911,7 +2984,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>'מינימום שגיאות'!B5</f>
         <v>1.2566370614359172</v>
@@ -2929,7 +3002,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>'מינימום שגיאות'!B6</f>
         <v>1.2740903539558606</v>
@@ -2947,7 +3020,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>'מינימום שגיאות'!B7</f>
         <v>1.2915436464758039</v>
@@ -2965,7 +3038,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>'מינימום שגיאות'!B8</f>
         <v>1.3089969389957472</v>
@@ -2983,7 +3056,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>'מינימום שגיאות'!B9</f>
         <v>1.3264502315156905</v>
@@ -3001,7 +3074,7 @@
         <v>5.0383315673172722E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>'מינימום שגיאות'!B10</f>
         <v>1.3439035240356338</v>

--- a/אופטיקה/אקסל אופטיקה חלק א.xlsx
+++ b/אופטיקה/אקסל אופטיקה חלק א.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\אוניברסיטת תל אביב\laba\אופטיקה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\אופטיקה\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59927EA-0529-49C5-92F8-752F539FEAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="התאמה של סנל" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="מינימום אדינגטון" sheetId="10" r:id="rId9"/>
     <sheet name="מש&quot;צ" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>α</t>
   </si>
@@ -203,16 +204,49 @@
   <si>
     <t>ALPHA</t>
   </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>dβ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>dn/n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>dmin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,9 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,16 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -635,7 +670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -676,7 +711,7 @@
         <v>1.5373338742644422</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -708,7 +743,7 @@
         <v>1.477386614155894</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -740,7 +775,7 @@
         <v>1.4904794774118153</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -772,7 +807,7 @@
         <v>1.4922319370800929</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>25</v>
       </c>
@@ -804,7 +839,7 @@
         <v>1.5102732045287237</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
@@ -836,7 +871,7 @@
         <v>1.5165732094141289</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>35</v>
       </c>
@@ -868,7 +903,7 @@
         <v>1.5147987079989274</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>40</v>
       </c>
@@ -900,7 +935,7 @@
         <v>1.5068793128981497</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45</v>
       </c>
@@ -932,7 +967,7 @@
         <v>1.5061759587535093</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50</v>
       </c>
@@ -964,12 +999,12 @@
         <v>1.5206113813412601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -981,27 +1016,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="C3">
-        <f>SIN(49*PI()/180)/SIN(PI()/3)</f>
-        <v>0.87146355860321378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <f>49*PI()/180</f>
+        <v>0.85521133347722145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5.6330259388522397E-3</v>
+      </c>
+      <c r="D5">
+        <f>C5/C3*100</f>
+        <v>0.65867063711010498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f>30*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E11">
+        <f>SIN(C3)/SIN(C11)</f>
+        <v>1.5094191604455443</v>
+      </c>
+      <c r="F11">
+        <f>(C5*COS(C3)/SIN(C11))</f>
+        <v>7.3911950554434828E-3</v>
+      </c>
+      <c r="G11">
+        <f>100*F11/E11</f>
+        <v>0.48967147424190505</v>
       </c>
     </row>
   </sheetData>
@@ -1010,16 +1086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1147,7 +1223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1219,7 +1295,7 @@
         <v>8.5910356307561031</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1291,7 +1367,7 @@
         <v>4.121691665466213</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1363,7 +1439,7 @@
         <v>2.7666461159954094</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1435,7 +1511,7 @@
         <v>2.0717584385326946</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1507,7 +1583,7 @@
         <v>1.6736838543117636</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1579,7 +1655,7 @@
         <v>1.3969430622065131</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1651,7 +1727,7 @@
         <v>1.1924259995576605</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1723,7 +1799,7 @@
         <v>1.0343568396667471</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1795,7 +1871,7 @@
         <v>0.91748298464049116</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1874,16 +1950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'התאמה של סנל שגיאות'!P1</f>
         <v>sin(β)</v>
@@ -1901,7 +1975,7 @@
         <v>dsin(α)</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>'התאמה של סנל שגיאות'!P2</f>
         <v>0</v>
@@ -1919,7 +1993,7 @@
         <v>5.6330259388522397E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>'התאמה של סנל שגיאות'!P3</f>
         <v>5.6692787563377534E-2</v>
@@ -1937,7 +2011,7 @@
         <v>5.6115905744978786E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'התאמה של סנל שגיאות'!P4</f>
         <v>0.11753739745783764</v>
@@ -1955,7 +2029,7 @@
         <v>5.5474476175005573E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'התאמה של סנל שגיאות'!P5</f>
         <v>0.17364817766693058</v>
@@ -1973,7 +2047,7 @@
         <v>5.4410852344936042E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'התאמה של סנל שגיאות'!P6</f>
         <v>0.2292003909224142</v>
@@ -1991,7 +2065,7 @@
         <v>5.2933129074350634E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'התאמה של סנל שגיאות'!P7</f>
         <v>0.27982901403099197</v>
@@ -2009,7 +2083,7 @@
         <v>5.1052552729612208E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'התאמה של סנל שגיאות'!P8</f>
         <v>0.32969064526278702</v>
@@ -2027,7 +2101,7 @@
         <v>4.8783435632227283E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'התאמה של סנל שגיאות'!P9</f>
         <v>0.37864861735243321</v>
@@ -2045,7 +2119,7 @@
         <v>4.6143047133437292E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'התאמה של סנל שגיאות'!P10</f>
         <v>0.42656873990145844</v>
@@ -2063,7 +2137,7 @@
         <v>4.3151482184028223E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'התאמה של סנל שגיאות'!P11</f>
         <v>0.46947156278589081</v>
@@ -2081,7 +2155,7 @@
         <v>3.9831508399621376E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'התאמה של סנל שגיאות'!P12</f>
         <v>0.50377397704552629</v>
@@ -2105,16 +2179,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>80</v>
       </c>
@@ -2142,7 +2216,7 @@
         <v>176.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>19</v>
       </c>
@@ -2153,7 +2227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>21</v>
       </c>
@@ -2161,7 +2235,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2178,7 +2252,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +2271,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J9">
         <f>J1*(PI()/180)</f>
         <v>1.3089969389957472</v>
@@ -2207,17 +2281,60 @@
         <v>0.32274861218395146</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.7610380000000001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.0230000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <f>(PI()-A16)/2</f>
+        <v>0.69027732679489651</v>
+      </c>
+      <c r="D16" s="2">
+        <f>B16/2</f>
+        <v>1.5115E-3</v>
+      </c>
+      <c r="E16">
+        <f>SIN(J9)/SIN(C16)</f>
+        <v>1.5169599390299842</v>
+      </c>
+      <c r="F16">
+        <f>SQRT((K9*COS(J9)/SIN(C16))^2+(D16*SIN(J9)*COS(C16)/(SIN(C16))^2)^2)</f>
+        <v>0.13121642379721435</v>
+      </c>
+      <c r="G16">
+        <f>100*F16/E16</f>
+        <v>8.6499597267624821</v>
       </c>
     </row>
   </sheetData>
@@ -2226,16 +2343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2252,7 +2369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2272,7 +2389,7 @@
         <v>0.79349204761587233</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2292,7 +2409,7 @@
         <v>0.33717792391609308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2312,7 +2429,7 @@
         <v>0.21523292430810281</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2332,7 +2449,7 @@
         <v>0.15723092092784788</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2358,16 +2475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2381,7 +2498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2398,7 +2515,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2415,7 +2532,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2432,7 +2549,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2449,7 +2566,7 @@
         <v>1.0386786614466445E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2472,16 +2589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>69</v>
       </c>
@@ -2500,7 +2617,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>70</v>
       </c>
@@ -2511,7 +2628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>71</v>
       </c>
@@ -2519,7 +2636,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>72</v>
       </c>
@@ -2527,7 +2644,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>73</v>
       </c>
@@ -2535,7 +2652,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>74</v>
       </c>
@@ -2546,7 +2663,7 @@
         <v>1.2658043889999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>75</v>
       </c>
@@ -2554,7 +2671,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>76</v>
       </c>
@@ -2562,12 +2679,75 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>77</v>
       </c>
       <c r="C10">
         <v>277.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.4405999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="C14">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="D14">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="E14">
+        <f>-C14/(2*A14)</f>
+        <v>1.2657675986746499</v>
+      </c>
+      <c r="F14">
+        <f>SQRT((D14/(2*A14))^2+(B14*C14/(2*A14^2))^2)</f>
+        <v>0.31483227179210649</v>
+      </c>
+      <c r="G14">
+        <f>SQRT(15*COS(E14)^2+1)</f>
+        <v>1.5339122326211654</v>
+      </c>
+      <c r="H14">
+        <f>F14*(15*COS(A14)*SIN(A14))/SQRT(15*COS(A14)^2+1)</f>
+        <v>0.34674951426856054</v>
+      </c>
+      <c r="I14">
+        <f>100*H14/G14</f>
+        <v>22.605564183814568</v>
       </c>
     </row>
   </sheetData>
@@ -2576,16 +2756,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>69</v>
       </c>
@@ -2620,12 +2800,12 @@
         <v>1.2042771838760873</v>
       </c>
       <c r="C2">
-        <f>(1/SQRT(12))*(PI()/180)</f>
-        <v>5.0383315673172722E-3</v>
+        <f>SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D2">
         <f>100*C2/B2</f>
-        <v>0.41836976028233758</v>
+        <v>0.46775161186079928</v>
       </c>
       <c r="E2">
         <v>277</v>
@@ -2635,15 +2815,15 @@
         <v>4.8345620280242931</v>
       </c>
       <c r="G2">
-        <f>(1/SQRT(12))*(PI()/180)</f>
-        <v>5.0383315673172722E-3</v>
+        <f>SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H2">
         <f>100*G2/F2</f>
-        <v>0.10421485003422848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11651574447074059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>70</v>
       </c>
@@ -2652,12 +2832,12 @@
         <v>1.2217304763960306</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="1">(1/SQRT(12))*(PI()/180)</f>
-        <v>5.0383315673172722E-3</v>
+        <f t="shared" ref="C3:C10" si="1">SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="2">100*C3/B3</f>
-        <v>0.41239304942116134</v>
+        <v>0.46106944597707356</v>
       </c>
       <c r="E3">
         <v>276.5</v>
@@ -2667,15 +2847,15 @@
         <v>4.8258353817643211</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="4">(1/SQRT(12))*(PI()/180)</f>
-        <v>5.0383315673172722E-3</v>
+        <f t="shared" ref="G3:G10" si="4">SQRT((1/SQRT(12))^2+(0.5/SQRT(12))^2)*PI()/180</f>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H10" si="5">100*G3/F3</f>
-        <v>0.10440330365092691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11672644201951228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>71</v>
       </c>
@@ -2685,11 +2865,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>0.40658469661241259</v>
+        <v>0.45457551011824154</v>
       </c>
       <c r="E4">
         <v>276.5</v>
@@ -2700,14 +2880,14 @@
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="5"/>
-        <v>0.10440330365092691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11672644201951228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>72</v>
       </c>
@@ -2717,11 +2897,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>0.40093768693724019</v>
+        <v>0.44826196136659929</v>
       </c>
       <c r="E5">
         <v>276.5</v>
@@ -2732,14 +2912,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>0.10440330365092691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11672644201951228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>73</v>
       </c>
@@ -2749,11 +2929,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>0.3954453898559081</v>
+        <v>0.4421213865533582</v>
       </c>
       <c r="E6">
         <v>276</v>
@@ -2764,14 +2944,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>0.10459244007058439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11693790296519982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>74</v>
       </c>
@@ -2781,11 +2961,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>0.39010153323623364</v>
+        <v>0.43614677322155604</v>
       </c>
       <c r="E7">
         <v>276.5</v>
@@ -2796,14 +2976,14 @@
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>0.10440330365092691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11672644201951228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75</v>
       </c>
@@ -2813,11 +2993,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>0.38490017945975052</v>
+        <v>0.43033148291193529</v>
       </c>
       <c r="E8">
         <v>276.5</v>
@@ -2828,14 +3008,14 @@
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>0.10440330365092691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11672644201951228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>76</v>
       </c>
@@ -2845,11 +3025,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>0.37983570341422751</v>
+        <v>0.42466922655783085</v>
       </c>
       <c r="E9">
         <v>277</v>
@@ -2860,14 +3040,14 @@
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>0.10421485003422848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.11651574447074059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>77</v>
       </c>
@@ -2877,11 +3057,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0.37490277220105572</v>
+        <v>0.41915404179733956</v>
       </c>
       <c r="E10">
         <v>277.5</v>
@@ -2892,11 +3072,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>0.10402707552966232</v>
+        <v>0.11630580619241494</v>
       </c>
     </row>
   </sheetData>
@@ -2905,14 +3085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'מינימום שגיאות'!B1</f>
         <v>α [rad]</v>
@@ -2930,14 +3110,14 @@
         <v>dδ</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>'מינימום שגיאות'!B2</f>
         <v>1.2042771838760873</v>
       </c>
       <c r="B2">
         <f>'מינימום שגיאות'!C2</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C2">
         <f>'מינימום שגיאות'!F2</f>
@@ -2945,17 +3125,17 @@
       </c>
       <c r="D2">
         <f>'מינימום שגיאות'!G2</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>'מינימום שגיאות'!B3</f>
         <v>1.2217304763960306</v>
       </c>
       <c r="B3">
         <f>'מינימום שגיאות'!C3</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C3">
         <f>'מינימום שגיאות'!F3</f>
@@ -2963,17 +3143,17 @@
       </c>
       <c r="D3">
         <f>'מינימום שגיאות'!G3</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'מינימום שגיאות'!B4</f>
         <v>1.2391837689159739</v>
       </c>
       <c r="B4">
         <f>'מינימום שגיאות'!C4</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C4">
         <f>'מינימום שגיאות'!F4</f>
@@ -2981,17 +3161,17 @@
       </c>
       <c r="D4">
         <f>'מינימום שגיאות'!G4</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'מינימום שגיאות'!B5</f>
         <v>1.2566370614359172</v>
       </c>
       <c r="B5">
         <f>'מינימום שגיאות'!C5</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C5">
         <f>'מינימום שגיאות'!F5</f>
@@ -2999,17 +3179,17 @@
       </c>
       <c r="D5">
         <f>'מינימום שגיאות'!G5</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'מינימום שגיאות'!B6</f>
         <v>1.2740903539558606</v>
       </c>
       <c r="B6">
         <f>'מינימום שגיאות'!C6</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C6">
         <f>'מינימום שגיאות'!F6</f>
@@ -3017,17 +3197,17 @@
       </c>
       <c r="D6">
         <f>'מינימום שגיאות'!G6</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'מינימום שגיאות'!B7</f>
         <v>1.2915436464758039</v>
       </c>
       <c r="B7">
         <f>'מינימום שגיאות'!C7</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C7">
         <f>'מינימום שגיאות'!F7</f>
@@ -3035,17 +3215,17 @@
       </c>
       <c r="D7">
         <f>'מינימום שגיאות'!G7</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'מינימום שגיאות'!B8</f>
         <v>1.3089969389957472</v>
       </c>
       <c r="B8">
         <f>'מינימום שגיאות'!C8</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C8">
         <f>'מינימום שגיאות'!F8</f>
@@ -3053,17 +3233,17 @@
       </c>
       <c r="D8">
         <f>'מינימום שגיאות'!G8</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'מינימום שגיאות'!B9</f>
         <v>1.3264502315156905</v>
       </c>
       <c r="B9">
         <f>'מינימום שגיאות'!C9</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C9">
         <f>'מינימום שגיאות'!F9</f>
@@ -3071,17 +3251,17 @@
       </c>
       <c r="D9">
         <f>'מינימום שגיאות'!G9</f>
-        <v>5.0383315673172722E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.6330259388522397E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'מינימום שגיאות'!B10</f>
         <v>1.3439035240356338</v>
       </c>
       <c r="B10">
         <f>'מינימום שגיאות'!C10</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
       <c r="C10">
         <f>'מינימום שגיאות'!F10</f>
@@ -3089,7 +3269,7 @@
       </c>
       <c r="D10">
         <f>'מינימום שגיאות'!G10</f>
-        <v>5.0383315673172722E-3</v>
+        <v>5.6330259388522397E-3</v>
       </c>
     </row>
   </sheetData>
